--- a/artfynd/A 60744-2018.xlsx
+++ b/artfynd/A 60744-2018.xlsx
@@ -680,14 +680,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68175904</v>
+        <v>68176169</v>
       </c>
       <c r="B2" t="n">
-        <v>57585</v>
+        <v>57587</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Behöver inte valideras</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -696,51 +696,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>208242</v>
+        <v>100141</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lissotriton vulgaris</t>
+          <t>Triturus cristatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
+          <t>(Laurenti, 1768)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sjövik, Sommen, Sm</t>
+          <t>Sjövik, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>503498.5757228022</v>
+        <v>503526.6896539551</v>
       </c>
       <c r="R2" t="n">
-        <v>6429815.746484536</v>
+        <v>6429839.084042171</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -767,7 +755,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1999-04-28</t>
+          <t>2005-01-01</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -777,7 +765,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>1999-04-28</t>
+          <t>2005-12-31</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -802,7 +790,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Josefine Gustafsson</t>
+          <t>Anna Isaksson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
@@ -813,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68175906</v>
+        <v>68175904</v>
       </c>
       <c r="B3" t="n">
-        <v>57587</v>
+        <v>57585</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -829,26 +817,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100141</v>
+        <v>208242</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Triturus cristatus</t>
+          <t>Lissotriton vulgaris</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Laurenti, 1768)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -946,14 +934,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68176169</v>
+        <v>68175906</v>
       </c>
       <c r="B4" t="n">
         <v>57587</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Behöver inte valideras</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -979,22 +967,34 @@
           <t>(Laurenti, 1768)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sjövik, Sm</t>
+          <t>Sjövik, Sommen, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503526.6896539551</v>
+        <v>503498.5757228022</v>
       </c>
       <c r="R4" t="n">
-        <v>6429839.084042171</v>
+        <v>6429815.746484536</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2005-01-01</t>
+          <t>1999-04-28</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2005-12-31</t>
+          <t>1999-04-28</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Anna Isaksson</t>
+          <t>Josefine Gustafsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">

--- a/artfynd/A 60744-2018.xlsx
+++ b/artfynd/A 60744-2018.xlsx
@@ -680,14 +680,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68176169</v>
+        <v>68175904</v>
       </c>
       <c r="B2" t="n">
-        <v>57587</v>
+        <v>57585</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Behöver inte valideras</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -696,39 +696,51 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100141</v>
+        <v>208242</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Större vattensalamander</t>
+          <t>Mindre vattensalamander</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Triturus cristatus</t>
+          <t>Lissotriton vulgaris</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Laurenti, 1768)</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sjövik, Sm</t>
+          <t>Sjövik, Sommen, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>503526.6896539551</v>
+        <v>503498.5757228022</v>
       </c>
       <c r="R2" t="n">
-        <v>6429839.084042171</v>
+        <v>6429815.746484536</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -755,7 +767,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2005-01-01</t>
+          <t>1999-04-28</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -765,7 +777,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2005-12-31</t>
+          <t>1999-04-28</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -790,7 +802,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Anna Isaksson</t>
+          <t>Josefine Gustafsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
@@ -801,10 +813,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68175904</v>
+        <v>68175906</v>
       </c>
       <c r="B3" t="n">
-        <v>57585</v>
+        <v>57587</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,26 +829,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>208242</v>
+        <v>100141</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mindre vattensalamander</t>
+          <t>Större vattensalamander</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lissotriton vulgaris</t>
+          <t>Triturus cristatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Laurenti, 1768)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -934,14 +946,14 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68175906</v>
+        <v>68176169</v>
       </c>
       <c r="B4" t="n">
         <v>57587</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Behöver inte valideras</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -967,34 +979,22 @@
           <t>(Laurenti, 1768)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sjövik, Sommen, Sm</t>
+          <t>Sjövik, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503498.5757228022</v>
+        <v>503526.6896539551</v>
       </c>
       <c r="R4" t="n">
-        <v>6429815.746484536</v>
+        <v>6429839.084042171</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1999-04-28</t>
+          <t>2005-01-01</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1999-04-28</t>
+          <t>2005-12-31</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Josefine Gustafsson</t>
+          <t>Anna Isaksson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
